--- a/funciones.xlsx
+++ b/funciones.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Propietario\Desktop\Víctor\HTML\weather\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Propietario\Desktop\Victor\VS Studio\byteZone\weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C257F9A9-420F-4032-8EFC-2A8CC2CB1330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5EFAD-4AEE-41DF-B6A9-D3C38C94B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0F409307-CFAA-4AAF-8395-9CDFD91C09FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{0F409307-CFAA-4AAF-8395-9CDFD91C09FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Funcion</t>
   </si>
@@ -63,15 +63,6 @@
     <t>left.js</t>
   </si>
   <si>
-    <t>lenght.js</t>
-  </si>
-  <si>
-    <t>perfil.js</t>
-  </si>
-  <si>
-    <t>scrollSection.js</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -437,12 +428,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>lenghtChange</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>showAside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -457,12 +448,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>enviar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>closeAside</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -473,11 +464,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>showPerfil</t>
+        <color rgb="FF92D050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updatePricesIni</t>
     </r>
     <r>
       <rPr>
@@ -493,16 +484,15 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>closePerfil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>updatePricesTouch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -511,173 +501,42 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>paginaPerfil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>togglePassword</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(numero)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>datosPerfil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(pagina)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>guardarDatos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>cerrarSesion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>sectionLeft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(btnLeft)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>sectionRight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(btnRight)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>actualizarBtn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(section)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>showAside</t>
+      <t>handleDrag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">event, circle, isTouch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -686,27 +545,45 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>closeAside</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>()</t>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>filterProducts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>min, max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -714,7 +591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +623,29 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -767,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -779,6 +679,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1095,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0345D8CE-E4A0-4588-98EB-408E3BD821F9}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,13 +1035,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,31 +1065,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,25 +1097,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,19 +1123,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,116 +1151,84 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>35</v>
+      <c r="B27" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A20:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>